--- a/introduction/code/test.xlsx
+++ b/introduction/code/test.xlsx
@@ -1,31 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBC" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KBC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Warning Text</t>
+  </si>
+  <si>
+    <t>Explanatory Text</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Headline 2</t>
+  </si>
+  <si>
+    <t>Headline 3</t>
+  </si>
+  <si>
+    <t>Headline 4</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Followed Hyperlink</t>
+  </si>
+  <si>
+    <t>Linked Cell</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Check Cell</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>20 % - Accent1</t>
+  </si>
+  <si>
+    <t>40 % - Accent1</t>
+  </si>
+  <si>
+    <t>60 % - Accent1</t>
+  </si>
+  <si>
+    <t>Accent2</t>
+  </si>
+  <si>
+    <t>20 % - Accent2</t>
+  </si>
+  <si>
+    <t>40 % - Accent2</t>
+  </si>
+  <si>
+    <t>60 % - Accent2</t>
+  </si>
+  <si>
+    <t>Accent3</t>
+  </si>
+  <si>
+    <t>20 % - Accent3</t>
+  </si>
+  <si>
+    <t>40 % - Accent3</t>
+  </si>
+  <si>
+    <t>60 % - Accent3</t>
+  </si>
+  <si>
+    <t>Accent4</t>
+  </si>
+  <si>
+    <t>20 % - Accent4</t>
+  </si>
+  <si>
+    <t>40 % - Accent4</t>
+  </si>
+  <si>
+    <t>60 % - Accent4</t>
+  </si>
+  <si>
+    <t>Accent5</t>
+  </si>
+  <si>
+    <t>20 % - Accent5</t>
+  </si>
+  <si>
+    <t>40 % - Accent5</t>
+  </si>
+  <si>
+    <t>60 % - Accent5</t>
+  </si>
+  <si>
+    <t>Accent6</t>
+  </si>
+  <si>
+    <t>20 % - Accent6</t>
+  </si>
+  <si>
+    <t>40 % - Accent6</t>
+  </si>
+  <si>
+    <t>60 % - Accent6</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyymmdd"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyymmdd" numFmtId="165"/>
+    <numFmt formatCode="0.0%" numFmtId="166"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +168,335 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="32">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -68,102 +519,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+  <cellStyleXfs count="44">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="2" fillId="4" fontId="17" numFmtId="0"/>
+    <xf borderId="8" fillId="2" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="5" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="23" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="51">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="12"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="13"/>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf borderId="2" fillId="4" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf borderId="8" fillId="2" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf borderId="9" fillId="5" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="17"/>
+    <xf borderId="0" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="18"/>
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="19"/>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="21"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="22"/>
+    <xf borderId="0" fillId="11" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="23"/>
+    <xf borderId="0" fillId="12" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="25"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="26"/>
+    <xf borderId="0" fillId="15" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="27"/>
+    <xf borderId="0" fillId="16" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="28"/>
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="29"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="30"/>
+    <xf borderId="0" fillId="19" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="31"/>
+    <xf borderId="0" fillId="20" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="32"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="33"/>
+    <xf borderId="0" fillId="22" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="34"/>
+    <xf borderId="0" fillId="23" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35"/>
+    <xf borderId="0" fillId="24" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="36"/>
+    <xf borderId="0" fillId="25" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="37"/>
+    <xf borderId="0" fillId="26" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="38"/>
+    <xf borderId="0" fillId="27" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="39"/>
+    <xf borderId="0" fillId="28" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="40"/>
+    <xf borderId="0" fillId="29" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41"/>
+    <xf borderId="0" fillId="30" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="42"/>
+    <xf borderId="0" fillId="31" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Pandas" xfId="1" hidden="0"/>
+  <cellStyles count="44">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Pandas" xfId="1"/>
+    <cellStyle hidden="0" name="highlight" xfId="2"/>
+    <cellStyle builtinId="22" hidden="0" name="Calculation" xfId="3"/>
+    <cellStyle builtinId="25" hidden="0" name="Total" xfId="4"/>
+    <cellStyle builtinId="10" hidden="0" name="Note" xfId="5"/>
+    <cellStyle builtinId="11" hidden="0" name="Warning Text" xfId="6"/>
+    <cellStyle builtinId="53" hidden="0" name="Explanatory Text" xfId="7"/>
+    <cellStyle builtinId="15" hidden="0" name="Title" xfId="8"/>
+    <cellStyle builtinId="16" hidden="0" name="Headline 1" xfId="9"/>
+    <cellStyle builtinId="18" hidden="0" name="Headline 3" xfId="10"/>
+    <cellStyle builtinId="19" hidden="0" name="Headline 4" xfId="11"/>
+    <cellStyle builtinId="8" hidden="0" name="Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="0" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="24" hidden="0" name="Linked Cell" xfId="14"/>
+    <cellStyle builtinId="20" hidden="0" name="Input" xfId="15"/>
+    <cellStyle builtinId="21" hidden="0" name="Output" xfId="16"/>
+    <cellStyle builtinId="23" hidden="0" name="Check Cell" xfId="17"/>
+    <cellStyle builtinId="26" hidden="0" name="Good" xfId="18"/>
+    <cellStyle builtinId="27" hidden="0" name="Bad" xfId="19"/>
+    <cellStyle builtinId="28" hidden="0" name="Neutral" xfId="20"/>
+    <cellStyle builtinId="30" hidden="0" name="20 % - Accent1" xfId="21"/>
+    <cellStyle builtinId="31" hidden="0" name="40 % - Accent1" xfId="22"/>
+    <cellStyle builtinId="32" hidden="0" name="60 % - Accent1" xfId="23"/>
+    <cellStyle builtinId="33" hidden="0" name="Accent2" xfId="24"/>
+    <cellStyle builtinId="34" hidden="0" name="20 % - Accent2" xfId="25"/>
+    <cellStyle builtinId="35" hidden="0" name="40 % - Accent2" xfId="26"/>
+    <cellStyle builtinId="36" hidden="0" name="60 % - Accent2" xfId="27"/>
+    <cellStyle builtinId="37" hidden="0" name="Accent3" xfId="28"/>
+    <cellStyle builtinId="38" hidden="0" name="20 % - Accent3" xfId="29"/>
+    <cellStyle builtinId="39" hidden="0" name="40 % - Accent3" xfId="30"/>
+    <cellStyle builtinId="40" hidden="0" name="60 % - Accent3" xfId="31"/>
+    <cellStyle builtinId="41" hidden="0" name="Accent4" xfId="32"/>
+    <cellStyle builtinId="42" hidden="0" name="20 % - Accent4" xfId="33"/>
+    <cellStyle builtinId="43" hidden="0" name="40 % - Accent4" xfId="34"/>
+    <cellStyle builtinId="44" hidden="0" name="60 % - Accent4" xfId="35"/>
+    <cellStyle builtinId="45" hidden="0" name="Accent5" xfId="36"/>
+    <cellStyle builtinId="46" hidden="0" name="20 % - Accent5" xfId="37"/>
+    <cellStyle builtinId="47" hidden="0" name="40 % - Accent5" xfId="38"/>
+    <cellStyle builtinId="48" hidden="0" name="60 % - Accent5" xfId="39"/>
+    <cellStyle builtinId="49" hidden="0" name="Accent6" xfId="40"/>
+    <cellStyle builtinId="50" hidden="0" name="20 % - Accent6" xfId="41"/>
+    <cellStyle builtinId="51" hidden="0" name="40 % - Accent6" xfId="42"/>
+    <cellStyle builtinId="52" hidden="0" name="60 % - Accent6" xfId="43"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -174,17 +793,17 @@
     <ext cx="3429000" cy="3429000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -481,7 +1100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,18 +1108,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="n">
         <v>40380</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -510,7 +1128,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -528,7 +1146,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -546,12 +1164,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="D2" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="n">
         <v>3.124</v>
       </c>
@@ -562,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -570,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -579,12 +1197,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -597,8 +1215,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -616,218 +1234,448 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="n"/>
-      <c r="B1" s="4" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="n"/>
+      <c r="B1" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="K1" s="6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.090147048446538</v>
+        <v>-0.1456347633083659</v>
       </c>
       <c r="C3" t="n">
-        <v>1.336743513754584</v>
+        <v>-1.155151217109954</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.469928957097495</v>
+        <v>0.6369775474076868</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6172230070060029</v>
+        <v>-0.6997437027824627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.373879048277896</v>
+        <v>-0.9776671459280561</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9047034685350409</v>
+        <v>1.286360071523484</v>
       </c>
       <c r="H3" t="n">
-        <v>0.132815552332933</v>
+        <v>-0.4938207567849252</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.307963268142799</v>
+        <v>-1.317743475528333</v>
       </c>
       <c r="J3" t="n">
-        <v>1.084615857500892</v>
+        <v>-0.541158130947337</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9478165813321533</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+        <v>0.7578386056290345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.477798543816741</v>
+        <v>-0.02855442644571873</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5373917494929198</v>
+        <v>0.3692702338529587</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4719980900325415</v>
+        <v>0.6829774100336199</v>
       </c>
       <c r="E4" t="n">
-        <v>0.833399780998223</v>
+        <v>-0.0311439756964577</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3057733660355952</v>
+        <v>1.356795654494052</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9870025425331951</v>
+        <v>1.325169802708622</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.551740516694453</v>
+        <v>-0.1405095124486665</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1072064528532151</v>
+        <v>-0.1603558557890717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07305969390076709</v>
+        <v>0.6987165549523885</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.106067113220166</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+        <v>-1.434879876492341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5013636696368472</v>
+        <v>-0.02727254758010377</v>
       </c>
       <c r="C5" t="n">
-        <v>2.005303587771308</v>
+        <v>-0.8216883243379293</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.23379384997463</v>
+        <v>0.6000252411022844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8835889732089374</v>
+        <v>0.1989340909247289</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2085651222713159</v>
+        <v>-1.099588062409097</v>
       </c>
       <c r="G5" t="n">
-        <v>1.436063026540807</v>
+        <v>0.3718031615070503</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.404801318345578</v>
+        <v>-0.8582184427553051</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01840163590650584</v>
+        <v>-0.6516887359869012</v>
       </c>
       <c r="J5" t="n">
-        <v>1.771785504896437</v>
+        <v>-0.5831551235302556</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.939552807830326</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
+        <v>1.703938032798248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5272246468326132</v>
+        <v>0.1689611692723643</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4287784246762144</v>
+        <v>1.341108635506689</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07583079612952073</v>
+        <v>-0.9558671087801849</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5433328395020021</v>
+        <v>0.9763988136261227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2450874951717518</v>
+        <v>-1.291146173682726</v>
       </c>
       <c r="G6" t="n">
-        <v>0.313867834071055</v>
+        <v>-0.3670645030970543</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6112048490710128</v>
+        <v>-1.460066900667486</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2362032098761257</v>
+        <v>0.03390486297086399</v>
       </c>
       <c r="J6" t="n">
-        <v>1.557677180816671</v>
+        <v>-1.561366067457888</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.525443762209975</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
+        <v>-0.4695821801735663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1.238601345917449</v>
+        <v>2.151446551470969</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.470893543787413</v>
+        <v>1.495773377047214</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5679802099015838</v>
+        <v>2.489748294570503</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5230672422563566</v>
+        <v>-1.297848594993223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.295395091150149</v>
+        <v>1.120957100390955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2727355320840954</v>
+        <v>-0.1445205980773964</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5862063811341829</v>
+        <v>-1.120598873085745</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.117433158683108</v>
+        <v>-0.499644292931288</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2528918169922773</v>
+        <v>-0.5018281646530274</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7247290675315755</v>
+        <v>-0.9535364217203773</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>